--- a/biology/Zoologie/Conure_maîtresse/Conure_maîtresse.xlsx
+++ b/biology/Zoologie/Conure_maîtresse/Conure_maîtresse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_ma%C3%AEtresse</t>
+          <t>Conure_maîtresse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psittacara chloropterus
 La Conure maîtresse (Psittacara chloropterus, anciennement Aratinga chloroptera) est une espèce d'oiseaux néotropicaux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_ma%C3%AEtresse</t>
+          <t>Conure_maîtresse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit essentiellement sur l'île d'Hispaniola (Haïti et République dominicaine).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_ma%C3%AEtresse</t>
+          <t>Conure_maîtresse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure maîtresse est déplacée vers le genre Psittacara.
 </t>
